--- a/02_MasterWifoMannheim/03_Courses/Course170.xlsx
+++ b/02_MasterWifoMannheim/03_Courses/Course170.xlsx
@@ -1,37 +1,136 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Masterarbeit/Course_Suggestion/02_MasterWifoMannheim/99_Backup/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_2B59D2BFD320D83EA79A3011592F28324C59FDB8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>OPM 693 Sourcing Excellence</t>
+  </si>
+  <si>
+    <t>Contents</t>
+  </si>
+  <si>
+    <t>Increased levels of outsourcing make the management of supply chains and the selection of the right suppliers more crucial than ever. This course addresses corporate sourcing from a and all activities within the sourcing process to secure the best total value from suppliers, rather than just the lowest purchase price. To this end, the scope encompasses both the theoretical background and the practical tools of sourcing, starting from internal demand analysis all the way to business award decisions and the management of the ensuing buyer-supplier relationships. This course is recommended for anyone seeking a broad introduction to modern purchasing and supply management (“procurement”) with a specific focus on sourcing. Based on a modern definition of procurement, all major aspects of the sourcing process are covered from pre-transaction (requirements and specification management, supply market P2P process, expediting, conflicts, performance management) issues. Special emphasis is put on optimization levers from a technical (e.g., cost modelling) and a commercial (e.g., negotiation, reverse auctions) perspective.</t>
+  </si>
+  <si>
+    <t>Learning outcomes</t>
+  </si>
+  <si>
+    <t>Participants will learn how to set up and manage sourcing projects while considering the broader business environment and strategic direction of the organization (competitive, functional, category, and supply base). concepts, conceptual frameworks, and analytic tools. Furthermore, all participants will work on a case challenge that takes place in the second week of the course. The course will be a markedly international in nature with approx. 20-35 participants joining from the international partner network “GIC”. The course is scheduled as a two-week block course from first week will emphasize “theory” (lectures) while the second week will emphasize “practice” (case challenge with group work and final presentations to an audience of corporate https://www.bwl.uni-representatives). Please find more mannheim.de/en/international/global-innovation-challenge/. questions to Janna Ried (janna.ried@uni-mannheim.de).</t>
+  </si>
+  <si>
+    <t>Prerequisites</t>
+  </si>
+  <si>
+    <t>Operations Management (OPM)</t>
+  </si>
+  <si>
+    <t>Obligatory registration</t>
+  </si>
+  <si>
+    <t>Further Information on registration:School’s Website Intl. Affairs: https://www.bwl.uni-mannheim.de/international &amp; ILIAS</t>
+  </si>
+  <si>
+    <t>Courses Hours per week Self-study Lecture / Group work 3 10</t>
+  </si>
+  <si>
+    <t>ECTS</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Form of assessment</t>
+  </si>
+  <si>
+    <t>Final presentation</t>
+  </si>
+  <si>
+    <t>Preliminary course work -</t>
+  </si>
+  <si>
+    <t>Lecturer/Person in charge</t>
+  </si>
+  <si>
+    <t>Prof. Dr. Christoph Bode</t>
+  </si>
+  <si>
+    <t>Duration of module</t>
+  </si>
+  <si>
+    <t>1 semester</t>
+  </si>
+  <si>
+    <t>Offering</t>
+  </si>
+  <si>
+    <t>SSS</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Program-specific educational goals</t>
+  </si>
+  <si>
+    <t>Grade</t>
+  </si>
+  <si>
+    <t>graded</t>
+  </si>
+  <si>
+    <t>Range of application</t>
+  </si>
+  <si>
+    <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.Sc. Bus. Math., M.Sc. Econ.</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +145,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,205 +469,140 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="n">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="n">
+      <c r="B1" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Module</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>OPM 693 Sourcing Excellence</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Contents</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Increased levels of outsourcing make the management of supply chains and the selection of the right suppliers more crucial than ever. This course addresses corporate sourcing from a and all activities within the sourcing process to secure the best total value from suppliers, rather than just the lowest purchase price. To this end, the scope encompasses both the theoretical background and the practical tools of sourcing, starting from internal demand analysis all the way to business award decisions and the management of the ensuing buyer-supplier relationships. This course is recommended for anyone seeking a broad introduction to modern purchasing and supply management (“procurement”) with a specific focus on sourcing. Based on a modern definition of procurement, all major aspects of the sourcing process are covered from pre-transaction (requirements and specification management, supply market P2P process, expediting, conflicts, performance management) issues. Special emphasis is put on optimization levers from a technical (e.g., cost modelling) and a commercial (e.g., negotiation, reverse auctions) perspective.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Learning outcomes</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Participants will learn how to set up and manage sourcing projects while considering the broader business environment and strategic direction of the organization (competitive, functional, category, and supply base). concepts, conceptual frameworks, and analytic tools. Furthermore, all participants will work on a case challenge that takes place in the second week of the course. The course will be a markedly international in nature with approx. 20-35 participants joining from the international partner network “GIC”. The course is scheduled as a two-week block course from first week will emphasize “theory” (lectures) while the second week will emphasize “practice” (case challenge with group work and final presentations to an audience of corporate https://www.bwl.uni-representatives). Please find more mannheim.de/en/international/global-innovation-challenge/. questions to Janna Ried (janna.ried@uni-mannheim.de).</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Prerequisites</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Operations Management (OPM)</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Obligatory registration</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Further Information on registration:School’s Website Intl. Affairs: https://www.bwl.uni-mannheim.de/international &amp; ILIAS</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Courses Hours per week Self-study Lecture / Group work 3 10</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>ECTS</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Form of assessment</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Final presentation</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Preliminary course work -</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Lecturer/Person in charge</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Prof. Dr. Christoph Bode</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Duration of module</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>1 semester</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Offering</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>SSS</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Language</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>English</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Program-specific educational goals</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Grade</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>graded</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Range of application</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.Sc. Bus. Math., M.Sc. Econ.</t>
-        </is>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
